--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H2">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.48266326017525</v>
+        <v>0.9094061507180001</v>
       </c>
       <c r="R2">
-        <v>1.930653040701</v>
+        <v>3.637624602872001</v>
       </c>
       <c r="S2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="T2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>13.537847</v>
       </c>
       <c r="I3">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J3">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.06827813134449999</v>
+        <v>0.1475986332253333</v>
       </c>
       <c r="R3">
-        <v>0.409668788067</v>
+        <v>0.8855917993519999</v>
       </c>
       <c r="S3">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="T3">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H4">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I4">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J4">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N4">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>40.7567599140625</v>
+        <v>29.346392910432</v>
       </c>
       <c r="R4">
-        <v>244.540559484375</v>
+        <v>176.078357462592</v>
       </c>
       <c r="S4">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="T4">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H5">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I5">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J5">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N5">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5711326024634999</v>
+        <v>0.68591268109</v>
       </c>
       <c r="R5">
-        <v>2.284530409854</v>
+        <v>2.74365072436</v>
       </c>
       <c r="S5">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="T5">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H6">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I6">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J6">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N6">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.480394060916</v>
+        <v>8.900644035694668</v>
       </c>
       <c r="R6">
-        <v>2.882364365496</v>
+        <v>53.40386421416801</v>
       </c>
       <c r="S6">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="T6">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H7">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I7">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J7">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N7">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>57.89638911371701</v>
+        <v>58.02956044977866</v>
       </c>
       <c r="R7">
-        <v>347.378334682302</v>
+        <v>348.177362698672</v>
       </c>
       <c r="S7">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="T7">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
     </row>
   </sheetData>
